--- a/src/assets/zxsj_mb/zxtb_k112_web.xlsx
+++ b/src/assets/zxsj_mb/zxtb_k112_web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>年度</t>
   </si>
@@ -26,12 +26,6 @@
   </si>
   <si>
     <t>学校名称</t>
-  </si>
-  <si>
-    <t>学习平台使用情况</t>
-  </si>
-  <si>
-    <t>公共网站使用情况</t>
   </si>
   <si>
     <t>上线学生人数</t>
@@ -72,10 +66,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -95,6 +89,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -102,6 +111,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -109,23 +148,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,13 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -152,32 +201,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,55 +231,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,19 +241,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,43 +373,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,120 +415,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -470,19 +470,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -506,39 +493,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,6 +504,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +542,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -739,13 +726,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,13 +1054,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="15.5833333333333" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="5.66666666666667" customWidth="1"/>
     <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
@@ -1083,7 +1072,7 @@
     <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:12">
+    <row r="1" ht="28" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,78 +1088,98 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="28" customHeight="1" spans="1:12">
-      <c r="A2" s="1"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4" t="s">
+    <row r="2" ht="27" customHeight="1" spans="1:12">
+      <c r="A2" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3">
+        <v>51252</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3</v>
+      </c>
+      <c r="H2" s="3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="K2" s="3">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="5">
         <v>8</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1" spans="1:12">
-      <c r="A3" s="5">
-        <v>2018</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>51252</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
         <v>0</v>
       </c>
       <c r="L3" s="5">
@@ -1178,37 +1187,37 @@
       </c>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:12">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2018</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
         <v>51252</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
         <v>0</v>
       </c>
       <c r="L4" s="5">
@@ -1216,37 +1225,37 @@
       </c>
     </row>
     <row r="5" ht="27" customHeight="1" spans="1:12">
-      <c r="A5" s="5">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>51252</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="5">
@@ -1254,37 +1263,37 @@
       </c>
     </row>
     <row r="6" ht="27" customHeight="1" spans="1:12">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2017</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>51252</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>0</v>
       </c>
       <c r="L6" s="5">
@@ -1292,89 +1301,44 @@
       </c>
     </row>
     <row r="7" ht="27" customHeight="1" spans="1:12">
-      <c r="A7" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>51252</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="D7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="27" customHeight="1" spans="1:12">
-      <c r="A8" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="5">
-        <v>51252</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="E1:K1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
